--- a/Used_Sources/CO3_MVI_Source.xlsx
+++ b/Used_Sources/CO3_MVI_Source.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhin\Downloads\CO_MVI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a634b9d077ee98e5/Desktop/Shopify_CLI_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21B7981A-F8FF-44DB-B150-4AF6A719DC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{21B7981A-F8FF-44DB-B150-4AF6A719DC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C4DCE05-4EB5-429B-AB67-B5BB3D6227AF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{19387794-EAEA-45F9-9F5F-4F03D1C77D89}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{19387794-EAEA-45F9-9F5F-4F03D1C77D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="318">
   <si>
     <t>Model</t>
   </si>
@@ -891,13 +892,112 @@
   </si>
   <si>
     <t>3~ 575V</t>
+  </si>
+  <si>
+    <t>Pole</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Max. Pressure (PSI)</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>8X6X13 SV</t>
+  </si>
+  <si>
+    <t>230/460V</t>
+  </si>
+  <si>
+    <t>~3</t>
+  </si>
+  <si>
+    <t>ODP</t>
+  </si>
+  <si>
+    <t>TEFC</t>
+  </si>
+  <si>
+    <t>10X6X16 DV</t>
+  </si>
+  <si>
+    <t>460V</t>
+  </si>
+  <si>
+    <t>10X6X17 SV</t>
+  </si>
+  <si>
+    <t>10X6X19 SV</t>
+  </si>
+  <si>
+    <t>10X6X20 DV</t>
+  </si>
+  <si>
+    <t>10X6X21 SV</t>
+  </si>
+  <si>
+    <t>10X6X22 DV</t>
+  </si>
+  <si>
+    <t>10X8X12 SV</t>
+  </si>
+  <si>
+    <t>10X8X14 DV</t>
+  </si>
+  <si>
+    <t>12X8X15 SV</t>
+  </si>
+  <si>
+    <t>12X8X18 SV</t>
+  </si>
+  <si>
+    <t>12X10X13 DV</t>
+  </si>
+  <si>
+    <t>12X10X14 SV</t>
+  </si>
+  <si>
+    <t>14X10X17 DV</t>
+  </si>
+  <si>
+    <t>14X10X21 DV</t>
+  </si>
+  <si>
+    <t>14X10X25 DV</t>
+  </si>
+  <si>
+    <t>16X12X16 DV</t>
+  </si>
+  <si>
+    <t>16X12X20 DV</t>
+  </si>
+  <si>
+    <t>18X14X19 DV</t>
+  </si>
+  <si>
+    <t>18X14X22 DV</t>
+  </si>
+  <si>
+    <t>20X14X28 DV</t>
+  </si>
+  <si>
+    <t>20X16X18 DV</t>
+  </si>
+  <si>
+    <t>20X16X21 DV</t>
+  </si>
+  <si>
+    <t>24X18X23 DV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,6 +1007,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -931,8 +1038,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -943,8 +1051,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 7" xfId="1" xr:uid="{72024924-E9B3-4860-A1B7-7205947BAB72}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1278,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2875FA-6095-41D9-B159-76301F57358B}">
   <dimension ref="A1:F1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1042" workbookViewId="0">
-      <selection activeCell="G1073" sqref="G1073"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22917,4 +23026,5179 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE23236-7738-4EB4-914D-EA14AF056AA0}">
+  <dimension ref="A1:J156"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" customWidth="1"/>
+    <col min="4" max="4" width="30.36328125" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" customWidth="1"/>
+    <col min="10" max="10" width="21.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="2">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="2">
+        <v>175</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1769</v>
+      </c>
+      <c r="I2" t="str">
+        <f>J2 &amp; H2</f>
+        <v>373851769</v>
+      </c>
+      <c r="J2" s="2">
+        <v>37385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="2">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="2">
+        <v>175</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1856</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="0">J3 &amp; H3</f>
+        <v>434601856</v>
+      </c>
+      <c r="J3" s="2">
+        <v>43460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="2">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="2">
+        <v>175</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>414752019</v>
+      </c>
+      <c r="J4" s="2">
+        <v>41475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="2">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="2">
+        <v>175</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2152</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>506002152</v>
+      </c>
+      <c r="J5" s="2">
+        <v>50600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="2">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="2">
+        <v>175</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2058</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>435952058</v>
+      </c>
+      <c r="J6" s="2">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="2">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="2">
+        <v>175</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2205</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>535302205</v>
+      </c>
+      <c r="J7" s="2">
+        <v>53530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="2">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" s="2">
+        <v>175</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2268</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>491402268</v>
+      </c>
+      <c r="J8" s="2">
+        <v>49140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="2">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="2">
+        <v>175</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2486</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>629952486</v>
+      </c>
+      <c r="J9" s="2">
+        <v>62995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" s="2">
+        <v>175</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2482</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>512652482</v>
+      </c>
+      <c r="J10" s="2">
+        <v>51265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="2">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="2">
+        <v>175</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2700</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>644002700</v>
+      </c>
+      <c r="J11" s="2">
+        <v>64400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="2">
+        <v>125</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="2">
+        <v>175</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2559</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>547802559</v>
+      </c>
+      <c r="J12" s="2">
+        <v>54780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="2">
+        <v>125</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" s="2">
+        <v>175</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3174</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>730653174</v>
+      </c>
+      <c r="J13" s="2">
+        <v>73065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="2">
+        <v>150</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="2">
+        <v>175</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2920</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>657902920</v>
+      </c>
+      <c r="J14" s="2">
+        <v>65790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="2">
+        <v>150</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F15" s="2">
+        <v>175</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3408</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>816953408</v>
+      </c>
+      <c r="J15" s="2">
+        <v>81695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="2">
+        <v>200</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" s="2">
+        <v>175</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3039</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>732653039</v>
+      </c>
+      <c r="J16" s="2">
+        <v>73265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="2">
+        <v>200</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="2">
+        <v>175</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3908</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>925503908</v>
+      </c>
+      <c r="J17" s="2">
+        <v>92550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18" s="2">
+        <v>150</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F18" s="2">
+        <v>175</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3060</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>691203060</v>
+      </c>
+      <c r="J18" s="2">
+        <v>69120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" s="2">
+        <v>150</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="2">
+        <v>175</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3548</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>845053548</v>
+      </c>
+      <c r="J19" s="2">
+        <v>84505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="2">
+        <v>200</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="2">
+        <v>175</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3179</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>756553179</v>
+      </c>
+      <c r="J20" s="2">
+        <v>75655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="2">
+        <v>200</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F21" s="2">
+        <v>175</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H21" s="2">
+        <v>4048</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>958354048</v>
+      </c>
+      <c r="J21" s="2">
+        <v>95835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" s="2">
+        <v>250</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="2">
+        <v>175</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3197</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>797603197</v>
+      </c>
+      <c r="J22" s="2">
+        <v>79760</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" s="2">
+        <v>250</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F23" s="2">
+        <v>175</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4222</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>1143554222</v>
+      </c>
+      <c r="J23" s="2">
+        <v>114355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" s="2">
+        <v>300</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" s="2">
+        <v>175</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3725</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>1278103725</v>
+      </c>
+      <c r="J24" s="2">
+        <v>127810</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B25" s="2">
+        <v>300</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="2">
+        <v>175</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H25" s="2">
+        <v>4621</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>1275104621</v>
+      </c>
+      <c r="J25" s="2">
+        <v>127510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B26" s="2">
+        <v>200</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="2">
+        <v>232</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H26" s="2">
+        <v>3335</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>768403335</v>
+      </c>
+      <c r="J26" s="2">
+        <v>76840</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" s="2">
+        <v>200</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" s="2">
+        <v>232</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H27" s="2">
+        <v>4204</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>970754204</v>
+      </c>
+      <c r="J27" s="2">
+        <v>97075</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" s="2">
+        <v>250</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F28" s="2">
+        <v>232</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3352</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>812003352</v>
+      </c>
+      <c r="J28" s="2">
+        <v>81200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="2">
+        <v>250</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F29" s="2">
+        <v>232</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H29" s="2">
+        <v>4378</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>1154704378</v>
+      </c>
+      <c r="J29" s="2">
+        <v>115470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B30" s="2">
+        <v>300</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F30" s="2">
+        <v>232</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3881</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>1291203881</v>
+      </c>
+      <c r="J30" s="2">
+        <v>129120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B31" s="2">
+        <v>300</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F31" s="2">
+        <v>232</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4777</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>1286254777</v>
+      </c>
+      <c r="J31" s="2">
+        <v>128625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B32" s="2">
+        <v>350</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F32" s="2">
+        <v>232</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H32" s="2">
+        <v>4044</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>1302104044</v>
+      </c>
+      <c r="J32" s="2">
+        <v>130210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B33" s="2">
+        <v>350</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" s="2">
+        <v>232</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H33" s="2">
+        <v>4958</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>1433404958</v>
+      </c>
+      <c r="J33" s="2">
+        <v>143340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" s="2">
+        <v>350</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" s="2">
+        <v>232</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H34" s="2">
+        <v>4480</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>1364854480</v>
+      </c>
+      <c r="J34" s="2">
+        <v>136485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" s="2">
+        <v>350</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F35" s="2">
+        <v>232</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H35" s="2">
+        <v>5395</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>1492655395</v>
+      </c>
+      <c r="J35" s="2">
+        <v>149265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B36" s="2">
+        <v>400</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F36" s="2">
+        <v>232</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4652</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>1485004652</v>
+      </c>
+      <c r="J36" s="2">
+        <v>148500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B37" s="2">
+        <v>400</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F37" s="2">
+        <v>232</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H37" s="2">
+        <v>5594</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>1702855594</v>
+      </c>
+      <c r="J37" s="2">
+        <v>170285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B38" s="2">
+        <v>450</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F38" s="2">
+        <v>232</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H38" s="2">
+        <v>6115</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>1634556115</v>
+      </c>
+      <c r="J38" s="2">
+        <v>163455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B39" s="2">
+        <v>450</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F39" s="2">
+        <v>232</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H39" s="2">
+        <v>5841</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>1823405841</v>
+      </c>
+      <c r="J39" s="2">
+        <v>182340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40" s="2">
+        <v>500</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F40" s="2">
+        <v>232</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H40" s="2">
+        <v>6260</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>1683406260</v>
+      </c>
+      <c r="J40" s="2">
+        <v>168340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B41" s="2">
+        <v>500</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F41" s="2">
+        <v>232</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H41" s="2">
+        <v>5819</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>1897455819</v>
+      </c>
+      <c r="J41" s="2">
+        <v>189745</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B42" s="2">
+        <v>300</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F42" s="2">
+        <v>232</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H42" s="2">
+        <v>4173</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>1280304173</v>
+      </c>
+      <c r="J42" s="2">
+        <v>128030</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B43" s="2">
+        <v>300</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F43" s="2">
+        <v>232</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H43" s="2">
+        <v>5069</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>1269655069</v>
+      </c>
+      <c r="J43" s="2">
+        <v>126965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B44" s="2">
+        <v>350</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" s="2">
+        <v>232</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H44" s="2">
+        <v>4374</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>1289004374</v>
+      </c>
+      <c r="J44" s="2">
+        <v>128900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45" s="2">
+        <v>350</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" s="2">
+        <v>232</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H45" s="2">
+        <v>5289</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>1416405289</v>
+      </c>
+      <c r="J45" s="2">
+        <v>141640</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B46" s="2">
+        <v>400</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" s="2">
+        <v>232</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H46" s="2">
+        <v>4546</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>1404454546</v>
+      </c>
+      <c r="J46" s="2">
+        <v>140445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" s="2">
+        <v>400</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F47" s="2">
+        <v>232</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H47" s="2">
+        <v>5488</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>1626605488</v>
+      </c>
+      <c r="J47" s="2">
+        <v>162660</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B48" s="2">
+        <v>450</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" s="2">
+        <v>232</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H48" s="2">
+        <v>6009</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>1555256009</v>
+      </c>
+      <c r="J48" s="2">
+        <v>155525</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" s="2">
+        <v>450</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F49" s="2">
+        <v>232</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H49" s="2">
+        <v>5735</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>1751355735</v>
+      </c>
+      <c r="J49" s="2">
+        <v>175135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B50" s="2">
+        <v>500</v>
+      </c>
+      <c r="C50" s="2">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F50" s="2">
+        <v>232</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H50" s="2">
+        <v>6154</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>1604156154</v>
+      </c>
+      <c r="J50" s="2">
+        <v>160415</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B51" s="2">
+        <v>500</v>
+      </c>
+      <c r="C51" s="2">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F51" s="2">
+        <v>232</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H51" s="2">
+        <v>5740</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>1886855740</v>
+      </c>
+      <c r="J51" s="2">
+        <v>188685</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" s="2">
+        <v>350</v>
+      </c>
+      <c r="C52" s="2">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F52" s="2">
+        <v>232</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H52" s="2">
+        <v>4558</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>1381404558</v>
+      </c>
+      <c r="J52" s="2">
+        <v>138140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B53" s="2">
+        <v>350</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F53" s="2">
+        <v>232</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H53" s="2">
+        <v>5473</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>1510505473</v>
+      </c>
+      <c r="J53" s="2">
+        <v>151050</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B54" s="2">
+        <v>400</v>
+      </c>
+      <c r="C54" s="2">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F54" s="2">
+        <v>232</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H54" s="2">
+        <v>4730</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>1496854730</v>
+      </c>
+      <c r="J54" s="2">
+        <v>149685</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B55" s="2">
+        <v>400</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F55" s="2">
+        <v>232</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H55" s="2">
+        <v>5672</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>1720705672</v>
+      </c>
+      <c r="J55" s="2">
+        <v>172070</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B56" s="2">
+        <v>500</v>
+      </c>
+      <c r="C56" s="2">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F56" s="2">
+        <v>232</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H56" s="2">
+        <v>6338</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>1699056338</v>
+      </c>
+      <c r="J56" s="2">
+        <v>169905</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B57" s="2">
+        <v>500</v>
+      </c>
+      <c r="C57" s="2">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F57" s="2">
+        <v>232</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H57" s="2">
+        <v>5896</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>1979205896</v>
+      </c>
+      <c r="J57" s="2">
+        <v>197920</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B58" s="2">
+        <v>40</v>
+      </c>
+      <c r="C58" s="2">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F58" s="2">
+        <v>175</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1818</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>375451818</v>
+      </c>
+      <c r="J58" s="2">
+        <v>37545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B59" s="2">
+        <v>40</v>
+      </c>
+      <c r="C59" s="2">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F59" s="2">
+        <v>175</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1951</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>419151951</v>
+      </c>
+      <c r="J59" s="2">
+        <v>41915</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B60" s="2">
+        <v>50</v>
+      </c>
+      <c r="C60" s="2">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F60" s="2">
+        <v>175</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1883</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>391351883</v>
+      </c>
+      <c r="J60" s="2">
+        <v>39135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B61" s="2">
+        <v>50</v>
+      </c>
+      <c r="C61" s="2">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F61" s="2">
+        <v>175</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1970</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>445151970</v>
+      </c>
+      <c r="J61" s="2">
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B62" s="2">
+        <v>60</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F62" s="2">
+        <v>175</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H62" s="2">
+        <v>2133</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>415002133</v>
+      </c>
+      <c r="J62" s="2">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B63" s="2">
+        <v>60</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" s="2">
+        <v>175</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H63" s="2">
+        <v>2266</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>516552266</v>
+      </c>
+      <c r="J63" s="2">
+        <v>51655</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" s="2">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F64" s="2">
+        <v>175</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H64" s="2">
+        <v>2173</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>448502173</v>
+      </c>
+      <c r="J64" s="2">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B65" s="2">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F65" s="2">
+        <v>175</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2319</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>549802319</v>
+      </c>
+      <c r="J65" s="2">
+        <v>54980</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B66" s="2">
+        <v>100</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F66" s="2">
+        <v>175</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H66" s="2">
+        <v>2382</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="0"/>
+        <v>503952382</v>
+      </c>
+      <c r="J66" s="2">
+        <v>50395</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" s="2">
+        <v>100</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F67" s="2">
+        <v>175</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H67" s="2">
+        <v>2600</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I130" si="1">J67 &amp; H67</f>
+        <v>645752600</v>
+      </c>
+      <c r="J67" s="2">
+        <v>64575</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B68" s="2">
+        <v>100</v>
+      </c>
+      <c r="C68" s="2">
+        <v>4</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F68" s="2">
+        <v>175</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H68" s="2">
+        <v>2560</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="1"/>
+        <v>530052560</v>
+      </c>
+      <c r="J68" s="2">
+        <v>53005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69" s="2">
+        <v>100</v>
+      </c>
+      <c r="C69" s="2">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F69" s="2">
+        <v>175</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H69" s="2">
+        <v>2778</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v>658302778</v>
+      </c>
+      <c r="J69" s="2">
+        <v>65830</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" s="2">
+        <v>125</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F70" s="2">
+        <v>175</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H70" s="2">
+        <v>2638</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>557952638</v>
+      </c>
+      <c r="J70" s="2">
+        <v>55795</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" s="2">
+        <v>125</v>
+      </c>
+      <c r="C71" s="2">
+        <v>4</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F71" s="2">
+        <v>175</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H71" s="2">
+        <v>3252</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>737703252</v>
+      </c>
+      <c r="J71" s="2">
+        <v>73770</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72" s="2">
+        <v>150</v>
+      </c>
+      <c r="C72" s="2">
+        <v>4</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F72" s="2">
+        <v>175</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H72" s="2">
+        <v>2998</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v>662352998</v>
+      </c>
+      <c r="J72" s="2">
+        <v>66235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B73" s="2">
+        <v>150</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F73" s="2">
+        <v>175</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H73" s="2">
+        <v>3486</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="1"/>
+        <v>829053486</v>
+      </c>
+      <c r="J73" s="2">
+        <v>82905</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B74" s="2">
+        <v>200</v>
+      </c>
+      <c r="C74" s="2">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F74" s="2">
+        <v>175</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H74" s="2">
+        <v>3117</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="1"/>
+        <v>743103117</v>
+      </c>
+      <c r="J74" s="2">
+        <v>74310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B75" s="2">
+        <v>200</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F75" s="2">
+        <v>175</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H75" s="2">
+        <v>3986</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="1"/>
+        <v>933803986</v>
+      </c>
+      <c r="J75" s="2">
+        <v>93380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="2">
+        <v>125</v>
+      </c>
+      <c r="C76" s="2">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F76" s="2">
+        <v>175</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H76" s="2">
+        <v>2947</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="1"/>
+        <v>598502947</v>
+      </c>
+      <c r="J76" s="2">
+        <v>59850</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" s="2">
+        <v>125</v>
+      </c>
+      <c r="C77" s="2">
+        <v>4</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F77" s="2">
+        <v>175</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H77" s="2">
+        <v>3561</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="1"/>
+        <v>777453561</v>
+      </c>
+      <c r="J77" s="2">
+        <v>77745</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B78" s="2">
+        <v>150</v>
+      </c>
+      <c r="C78" s="2">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F78" s="2">
+        <v>175</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H78" s="2">
+        <v>3307</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="1"/>
+        <v>702953307</v>
+      </c>
+      <c r="J78" s="2">
+        <v>70295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79" s="2">
+        <v>150</v>
+      </c>
+      <c r="C79" s="2">
+        <v>4</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F79" s="2">
+        <v>175</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H79" s="2">
+        <v>3795</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="1"/>
+        <v>863753795</v>
+      </c>
+      <c r="J79" s="2">
+        <v>86375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B80" s="2">
+        <v>200</v>
+      </c>
+      <c r="C80" s="2">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F80" s="2">
+        <v>175</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H80" s="2">
+        <v>3426</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="1"/>
+        <v>782753426</v>
+      </c>
+      <c r="J80" s="2">
+        <v>78275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B81" s="2">
+        <v>200</v>
+      </c>
+      <c r="C81" s="2">
+        <v>4</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F81" s="2">
+        <v>175</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H81" s="2">
+        <v>4295</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="1"/>
+        <v>968504295</v>
+      </c>
+      <c r="J81" s="2">
+        <v>96850</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B82" s="2">
+        <v>250</v>
+      </c>
+      <c r="C82" s="2">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F82" s="2">
+        <v>175</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H82" s="2">
+        <v>3443</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="1"/>
+        <v>825553443</v>
+      </c>
+      <c r="J82" s="2">
+        <v>82555</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B83" s="2">
+        <v>250</v>
+      </c>
+      <c r="C83" s="2">
+        <v>4</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F83" s="2">
+        <v>175</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H83" s="2">
+        <v>4469</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="1"/>
+        <v>1152504469</v>
+      </c>
+      <c r="J83" s="2">
+        <v>115250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B84" s="2">
+        <v>300</v>
+      </c>
+      <c r="C84" s="2">
+        <v>4</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F84" s="2">
+        <v>175</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H84" s="2">
+        <v>3972</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="1"/>
+        <v>1300453972</v>
+      </c>
+      <c r="J84" s="2">
+        <v>130045</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B85" s="2">
+        <v>300</v>
+      </c>
+      <c r="C85" s="2">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F85" s="2">
+        <v>175</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H85" s="2">
+        <v>4868</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="1"/>
+        <v>1281804868</v>
+      </c>
+      <c r="J85" s="2">
+        <v>128180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B86" s="2">
+        <v>200</v>
+      </c>
+      <c r="C86" s="2">
+        <v>4</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F86" s="2">
+        <v>175</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H86" s="2">
+        <v>3545</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="1"/>
+        <v>805703545</v>
+      </c>
+      <c r="J86" s="2">
+        <v>80570</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B87" s="2">
+        <v>200</v>
+      </c>
+      <c r="C87" s="2">
+        <v>4</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F87" s="2">
+        <v>175</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H87" s="2">
+        <v>4413</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="1"/>
+        <v>990454413</v>
+      </c>
+      <c r="J87" s="2">
+        <v>99045</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B88" s="2">
+        <v>250</v>
+      </c>
+      <c r="C88" s="2">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F88" s="2">
+        <v>175</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H88" s="2">
+        <v>3569</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="1"/>
+        <v>846753569</v>
+      </c>
+      <c r="J88" s="2">
+        <v>84675</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B89" s="2">
+        <v>250</v>
+      </c>
+      <c r="C89" s="2">
+        <v>4</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F89" s="2">
+        <v>175</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H89" s="2">
+        <v>4594</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="1"/>
+        <v>1174404594</v>
+      </c>
+      <c r="J89" s="2">
+        <v>117440</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B90" s="2">
+        <v>300</v>
+      </c>
+      <c r="C90" s="2">
+        <v>4</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F90" s="2">
+        <v>175</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H90" s="2">
+        <v>4097</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="1"/>
+        <v>1323454097</v>
+      </c>
+      <c r="J90" s="2">
+        <v>132345</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B91" s="2">
+        <v>300</v>
+      </c>
+      <c r="C91" s="2">
+        <v>4</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F91" s="2">
+        <v>175</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H91" s="2">
+        <v>4993</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="1"/>
+        <v>1307204993</v>
+      </c>
+      <c r="J91" s="2">
+        <v>130720</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B92" s="2">
+        <v>350</v>
+      </c>
+      <c r="C92" s="2">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F92" s="2">
+        <v>175</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H92" s="2">
+        <v>4299</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="1"/>
+        <v>1330904299</v>
+      </c>
+      <c r="J92" s="2">
+        <v>133090</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B93" s="2">
+        <v>350</v>
+      </c>
+      <c r="C93" s="2">
+        <v>4</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F93" s="2">
+        <v>175</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H93" s="2">
+        <v>5214</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="1"/>
+        <v>1456505214</v>
+      </c>
+      <c r="J93" s="2">
+        <v>145650</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B94" s="2">
+        <v>400</v>
+      </c>
+      <c r="C94" s="2">
+        <v>4</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F94" s="2">
+        <v>175</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H94" s="2">
+        <v>4471</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="1"/>
+        <v>1447604471</v>
+      </c>
+      <c r="J94" s="2">
+        <v>144760</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B95" s="2">
+        <v>400</v>
+      </c>
+      <c r="C95" s="2">
+        <v>4</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F95" s="2">
+        <v>175</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H95" s="2">
+        <v>5413</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="1"/>
+        <v>1666705413</v>
+      </c>
+      <c r="J95" s="2">
+        <v>166670</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B96" s="2">
+        <v>100</v>
+      </c>
+      <c r="C96" s="2">
+        <v>4</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F96" s="2">
+        <v>175</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H96" s="2">
+        <v>2680</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="1"/>
+        <v>535152680</v>
+      </c>
+      <c r="J96" s="2">
+        <v>53515</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" s="2">
+        <v>100</v>
+      </c>
+      <c r="C97" s="2">
+        <v>4</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F97" s="2">
+        <v>175</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H97" s="2">
+        <v>2897</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="1"/>
+        <v>674552897</v>
+      </c>
+      <c r="J97" s="2">
+        <v>67455</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B98" s="2">
+        <v>125</v>
+      </c>
+      <c r="C98" s="2">
+        <v>4</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F98" s="2">
+        <v>175</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H98" s="2">
+        <v>2757</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="1"/>
+        <v>570302757</v>
+      </c>
+      <c r="J98" s="2">
+        <v>57030</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B99" s="2">
+        <v>125</v>
+      </c>
+      <c r="C99" s="2">
+        <v>4</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F99" s="2">
+        <v>175</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H99" s="2">
+        <v>3371</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="1"/>
+        <v>752753371</v>
+      </c>
+      <c r="J99" s="2">
+        <v>75275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B100" s="2">
+        <v>150</v>
+      </c>
+      <c r="C100" s="2">
+        <v>4</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F100" s="2">
+        <v>175</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H100" s="2">
+        <v>3117</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="1"/>
+        <v>676903117</v>
+      </c>
+      <c r="J100" s="2">
+        <v>67690</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B101" s="2">
+        <v>150</v>
+      </c>
+      <c r="C101" s="2">
+        <v>4</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F101" s="2">
+        <v>175</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H101" s="2">
+        <v>3605</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="1"/>
+        <v>839053605</v>
+      </c>
+      <c r="J101" s="2">
+        <v>83905</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B102" s="2">
+        <v>200</v>
+      </c>
+      <c r="C102" s="2">
+        <v>4</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F102" s="2">
+        <v>175</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H102" s="2">
+        <v>3192</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="1"/>
+        <v>750403192</v>
+      </c>
+      <c r="J102" s="2">
+        <v>75040</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B103" s="2">
+        <v>200</v>
+      </c>
+      <c r="C103" s="2">
+        <v>4</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F103" s="2">
+        <v>175</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H103" s="2">
+        <v>4061</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="1"/>
+        <v>945054061</v>
+      </c>
+      <c r="J103" s="2">
+        <v>94505</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B104" s="2">
+        <v>100</v>
+      </c>
+      <c r="C104" s="2">
+        <v>4</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F104" s="2">
+        <v>175</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H104" s="2">
+        <v>3019</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="1"/>
+        <v>605003019</v>
+      </c>
+      <c r="J104" s="2">
+        <v>60500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B105" s="2">
+        <v>100</v>
+      </c>
+      <c r="C105" s="2">
+        <v>4</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F105" s="2">
+        <v>175</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H105" s="2">
+        <v>3236</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="1"/>
+        <v>729903236</v>
+      </c>
+      <c r="J105" s="2">
+        <v>72990</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B106" s="2">
+        <v>125</v>
+      </c>
+      <c r="C106" s="2">
+        <v>4</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F106" s="2">
+        <v>175</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H106" s="2">
+        <v>3096</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="1"/>
+        <v>640153096</v>
+      </c>
+      <c r="J106" s="2">
+        <v>64015</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B107" s="2">
+        <v>125</v>
+      </c>
+      <c r="C107" s="2">
+        <v>4</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F107" s="2">
+        <v>175</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H107" s="2">
+        <v>3710</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="1"/>
+        <v>792903710</v>
+      </c>
+      <c r="J107" s="2">
+        <v>79290</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B108" s="2">
+        <v>150</v>
+      </c>
+      <c r="C108" s="2">
+        <v>4</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F108" s="2">
+        <v>175</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H108" s="2">
+        <v>3456</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="1"/>
+        <v>744603456</v>
+      </c>
+      <c r="J108" s="2">
+        <v>74460</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B109" s="2">
+        <v>150</v>
+      </c>
+      <c r="C109" s="2">
+        <v>4</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F109" s="2">
+        <v>175</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H109" s="2">
+        <v>3944</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="1"/>
+        <v>895353944</v>
+      </c>
+      <c r="J109" s="2">
+        <v>89535</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B110" s="2">
+        <v>200</v>
+      </c>
+      <c r="C110" s="2">
+        <v>4</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F110" s="2">
+        <v>175</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H110" s="2">
+        <v>3531</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="1"/>
+        <v>818103531</v>
+      </c>
+      <c r="J110" s="2">
+        <v>81810</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B111" s="2">
+        <v>200</v>
+      </c>
+      <c r="C111" s="2">
+        <v>4</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F111" s="2">
+        <v>175</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H111" s="2">
+        <v>4400</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="1"/>
+        <v>1002654400</v>
+      </c>
+      <c r="J111" s="2">
+        <v>100265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B112" s="2">
+        <v>250</v>
+      </c>
+      <c r="C112" s="2">
+        <v>4</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F112" s="2">
+        <v>175</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H112" s="2">
+        <v>3555</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="1"/>
+        <v>859153555</v>
+      </c>
+      <c r="J112" s="2">
+        <v>85915</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B113" s="2">
+        <v>250</v>
+      </c>
+      <c r="C113" s="2">
+        <v>4</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F113" s="2">
+        <v>175</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H113" s="2">
+        <v>4580</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="1"/>
+        <v>1186604580</v>
+      </c>
+      <c r="J113" s="2">
+        <v>118660</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B114" s="2">
+        <v>200</v>
+      </c>
+      <c r="C114" s="2">
+        <v>4</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F114" s="2">
+        <v>175</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H114" s="2">
+        <v>3822</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="1"/>
+        <v>852353822</v>
+      </c>
+      <c r="J114" s="2">
+        <v>85235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B115" s="2">
+        <v>200</v>
+      </c>
+      <c r="C115" s="2">
+        <v>4</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F115" s="2">
+        <v>175</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H115" s="2">
+        <v>4690</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="1"/>
+        <v>1039404690</v>
+      </c>
+      <c r="J115" s="2">
+        <v>103940</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B116" s="2">
+        <v>250</v>
+      </c>
+      <c r="C116" s="2">
+        <v>4</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F116" s="2">
+        <v>175</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H116" s="2">
+        <v>3846</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="1"/>
+        <v>893403846</v>
+      </c>
+      <c r="J116" s="2">
+        <v>89340</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B117" s="2">
+        <v>250</v>
+      </c>
+      <c r="C117" s="2">
+        <v>4</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F117" s="2">
+        <v>175</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H117" s="2">
+        <v>4871</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="1"/>
+        <v>1223404871</v>
+      </c>
+      <c r="J117" s="2">
+        <v>122340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B118" s="2">
+        <v>300</v>
+      </c>
+      <c r="C118" s="2">
+        <v>4</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F118" s="2">
+        <v>175</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H118" s="2">
+        <v>4375</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="1"/>
+        <v>1370054375</v>
+      </c>
+      <c r="J118" s="2">
+        <v>137005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B119" s="2">
+        <v>300</v>
+      </c>
+      <c r="C119" s="2">
+        <v>4</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F119" s="2">
+        <v>175</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H119" s="2">
+        <v>5270</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="1"/>
+        <v>1354905270</v>
+      </c>
+      <c r="J119" s="2">
+        <v>135490</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B120" s="2">
+        <v>350</v>
+      </c>
+      <c r="C120" s="2">
+        <v>4</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F120" s="2">
+        <v>175</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H120" s="2">
+        <v>4578</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="1"/>
+        <v>1377454578</v>
+      </c>
+      <c r="J120" s="2">
+        <v>137745</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B121" s="2">
+        <v>350</v>
+      </c>
+      <c r="C121" s="2">
+        <v>4</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F121" s="2">
+        <v>175</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H121" s="2">
+        <v>5493</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="1"/>
+        <v>1500405493</v>
+      </c>
+      <c r="J121" s="2">
+        <v>150040</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B122" s="2">
+        <v>400</v>
+      </c>
+      <c r="C122" s="2">
+        <v>4</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F122" s="2">
+        <v>175</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H122" s="2">
+        <v>4750</v>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="1"/>
+        <v>1492904750</v>
+      </c>
+      <c r="J122" s="2">
+        <v>149290</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B123" s="2">
+        <v>400</v>
+      </c>
+      <c r="C123" s="2">
+        <v>4</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F123" s="2">
+        <v>175</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H123" s="2">
+        <v>5691</v>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="1"/>
+        <v>1712805691</v>
+      </c>
+      <c r="J123" s="2">
+        <v>171280</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" s="2">
+        <v>4</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F124" s="2">
+        <v>232</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" si="1"/>
+        <v>CFCF</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C125" s="2">
+        <v>4</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F125" s="2">
+        <v>232</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" si="1"/>
+        <v>CFCF</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B126" s="2">
+        <v>200</v>
+      </c>
+      <c r="C126" s="2">
+        <v>4</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F126" s="2">
+        <v>175</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H126" s="2">
+        <v>4053</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="1"/>
+        <v>847454053</v>
+      </c>
+      <c r="J126" s="2">
+        <v>84745</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B127" s="2">
+        <v>200</v>
+      </c>
+      <c r="C127" s="2">
+        <v>4</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F127" s="2">
+        <v>175</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H127" s="2">
+        <v>4911</v>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" si="1"/>
+        <v>1042804911</v>
+      </c>
+      <c r="J127" s="2">
+        <v>104280</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B128" s="2">
+        <v>250</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F128" s="2">
+        <v>175</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H128" s="2">
+        <v>4077</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="1"/>
+        <v>888504077</v>
+      </c>
+      <c r="J128" s="2">
+        <v>88850</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B129" s="2">
+        <v>250</v>
+      </c>
+      <c r="C129" s="2">
+        <v>4</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F129" s="2">
+        <v>175</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H129" s="2">
+        <v>5094</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="1"/>
+        <v>1223905094</v>
+      </c>
+      <c r="J129" s="2">
+        <v>122390</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B130" s="2">
+        <v>300</v>
+      </c>
+      <c r="C130" s="2">
+        <v>4</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F130" s="2">
+        <v>175</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H130" s="2">
+        <v>4596</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" si="1"/>
+        <v>1366154596</v>
+      </c>
+      <c r="J130" s="2">
+        <v>136615</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B131" s="2">
+        <v>300</v>
+      </c>
+      <c r="C131" s="2">
+        <v>4</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F131" s="2">
+        <v>175</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H131" s="2">
+        <v>5493</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" ref="I131:I156" si="2">J131 &amp; H131</f>
+        <v>1355405493</v>
+      </c>
+      <c r="J131" s="2">
+        <v>135540</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B132" s="2">
+        <v>350</v>
+      </c>
+      <c r="C132" s="2">
+        <v>4</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F132" s="2">
+        <v>175</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H132" s="2">
+        <v>4759</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="2"/>
+        <v>1377054759</v>
+      </c>
+      <c r="J132" s="2">
+        <v>137705</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B133" s="2">
+        <v>350</v>
+      </c>
+      <c r="C133" s="2">
+        <v>4</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F133" s="2">
+        <v>175</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H133" s="2">
+        <v>5674</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="2"/>
+        <v>1502555674</v>
+      </c>
+      <c r="J133" s="2">
+        <v>150255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B134" s="2">
+        <v>400</v>
+      </c>
+      <c r="C134" s="2">
+        <v>4</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F134" s="2">
+        <v>175</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H134" s="2">
+        <v>4931</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="2"/>
+        <v>1493754931</v>
+      </c>
+      <c r="J134" s="2">
+        <v>149375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B135" s="2">
+        <v>400</v>
+      </c>
+      <c r="C135" s="2">
+        <v>4</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F135" s="2">
+        <v>175</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H135" s="2">
+        <v>5872</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="2"/>
+        <v>1711455872</v>
+      </c>
+      <c r="J135" s="2">
+        <v>171145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C136" s="2">
+        <v>4</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F136" s="2">
+        <v>175</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="2"/>
+        <v>CFCF</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B137" s="2">
+        <v>125</v>
+      </c>
+      <c r="C137" s="2">
+        <v>6</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F137" s="2">
+        <v>175</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H137" s="2">
+        <v>4278</v>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" si="2"/>
+        <v>894954278</v>
+      </c>
+      <c r="J137" s="2">
+        <v>89495</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B138" s="2">
+        <v>125</v>
+      </c>
+      <c r="C138" s="2">
+        <v>6</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F138" s="2">
+        <v>175</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H138" s="2">
+        <v>4695</v>
+      </c>
+      <c r="I138" t="str">
+        <f t="shared" si="2"/>
+        <v>977454695</v>
+      </c>
+      <c r="J138" s="2">
+        <v>97745</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B139" s="2">
+        <v>150</v>
+      </c>
+      <c r="C139" s="2">
+        <v>6</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F139" s="2">
+        <v>175</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H139" s="2">
+        <v>4426</v>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" si="2"/>
+        <v>929604426</v>
+      </c>
+      <c r="J139" s="2">
+        <v>92960</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B140" s="2">
+        <v>150</v>
+      </c>
+      <c r="C140" s="2">
+        <v>6</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F140" s="2">
+        <v>175</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H140" s="2">
+        <v>5190</v>
+      </c>
+      <c r="I140" t="str">
+        <f t="shared" si="2"/>
+        <v>1062955190</v>
+      </c>
+      <c r="J140" s="2">
+        <v>106295</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B141" s="2">
+        <v>200</v>
+      </c>
+      <c r="C141" s="2">
+        <v>6</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F141" s="2">
+        <v>175</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H141" s="2">
+        <v>4956</v>
+      </c>
+      <c r="I141" t="str">
+        <f t="shared" si="2"/>
+        <v>1343654956</v>
+      </c>
+      <c r="J141" s="2">
+        <v>134365</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B142" s="2">
+        <v>200</v>
+      </c>
+      <c r="C142" s="2">
+        <v>6</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F142" s="2">
+        <v>175</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H142" s="2">
+        <v>5776</v>
+      </c>
+      <c r="I142" t="str">
+        <f t="shared" si="2"/>
+        <v>1198655776</v>
+      </c>
+      <c r="J142" s="2">
+        <v>119865</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B143" s="2">
+        <v>250</v>
+      </c>
+      <c r="C143" s="2">
+        <v>6</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F143" s="2">
+        <v>175</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H143" s="2">
+        <v>5114</v>
+      </c>
+      <c r="I143" t="str">
+        <f t="shared" si="2"/>
+        <v>1484755114</v>
+      </c>
+      <c r="J143" s="2">
+        <v>148475</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B144" s="2">
+        <v>250</v>
+      </c>
+      <c r="C144" s="2">
+        <v>6</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F144" s="2">
+        <v>175</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H144" s="2">
+        <v>5894</v>
+      </c>
+      <c r="I144" t="str">
+        <f t="shared" si="2"/>
+        <v>1500455894</v>
+      </c>
+      <c r="J144" s="2">
+        <v>150045</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B145" s="2">
+        <v>300</v>
+      </c>
+      <c r="C145" s="2">
+        <v>6</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F145" s="2">
+        <v>175</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H145" s="2">
+        <v>5273</v>
+      </c>
+      <c r="I145" t="str">
+        <f t="shared" si="2"/>
+        <v>1562355273</v>
+      </c>
+      <c r="J145" s="2">
+        <v>156235</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B146" s="2">
+        <v>300</v>
+      </c>
+      <c r="C146" s="2">
+        <v>6</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F146" s="2">
+        <v>175</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H146" s="2">
+        <v>5985</v>
+      </c>
+      <c r="I146" t="str">
+        <f t="shared" si="2"/>
+        <v>1583055985</v>
+      </c>
+      <c r="J146" s="2">
+        <v>158305</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C147" s="2">
+        <v>4</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F147" s="2">
+        <v>232</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I147" t="str">
+        <f t="shared" si="2"/>
+        <v>CFCF</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C148" s="2">
+        <v>6</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F148" s="2">
+        <v>175</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I148" t="str">
+        <f t="shared" si="2"/>
+        <v>CFCF</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C149" s="2">
+        <v>4</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F149" s="2">
+        <v>175</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I149" t="str">
+        <f t="shared" si="2"/>
+        <v>CFCF</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B150" s="2">
+        <v>250</v>
+      </c>
+      <c r="C150" s="2">
+        <v>6</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F150" s="2">
+        <v>175</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H150" s="2">
+        <v>6296</v>
+      </c>
+      <c r="I150" t="str">
+        <f t="shared" si="2"/>
+        <v>1637306296</v>
+      </c>
+      <c r="J150" s="2">
+        <v>163730</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B151" s="2">
+        <v>250</v>
+      </c>
+      <c r="C151" s="2">
+        <v>6</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F151" s="2">
+        <v>175</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H151" s="2">
+        <v>6296</v>
+      </c>
+      <c r="I151" t="str">
+        <f t="shared" si="2"/>
+        <v>1656456296</v>
+      </c>
+      <c r="J151" s="2">
+        <v>165645</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B152" s="2">
+        <v>300</v>
+      </c>
+      <c r="C152" s="2">
+        <v>6</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F152" s="2">
+        <v>175</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H152" s="2">
+        <v>6455</v>
+      </c>
+      <c r="I152" t="str">
+        <f t="shared" si="2"/>
+        <v>1713656455</v>
+      </c>
+      <c r="J152" s="2">
+        <v>171365</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B153" s="2">
+        <v>300</v>
+      </c>
+      <c r="C153" s="2">
+        <v>6</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F153" s="2">
+        <v>175</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H153" s="2">
+        <v>7167</v>
+      </c>
+      <c r="I153" t="str">
+        <f t="shared" si="2"/>
+        <v>1739057167</v>
+      </c>
+      <c r="J153" s="2">
+        <v>173905</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B154" s="2">
+        <v>350</v>
+      </c>
+      <c r="C154" s="2">
+        <v>6</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F154" s="2">
+        <v>175</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I154" t="str">
+        <f t="shared" si="2"/>
+        <v>CFCF</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B155" s="2">
+        <v>350</v>
+      </c>
+      <c r="C155" s="2">
+        <v>6</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F155" s="2">
+        <v>175</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H155" s="2">
+        <v>7718</v>
+      </c>
+      <c r="I155" t="str">
+        <f t="shared" si="2"/>
+        <v>2126357718</v>
+      </c>
+      <c r="J155" s="2">
+        <v>212635</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C156" s="2">
+        <v>6</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F156" s="2">
+        <v>175</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I156" t="str">
+        <f t="shared" si="2"/>
+        <v>CFCF</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>